--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seleniumlessions\Loungedatadriven\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CD6FA1-CF03-4B27-9DDF-52D31784C9F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1822-2B73-4A4D-BE7E-8E5FFA1966E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>customer</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>passwd</t>
-  </si>
-  <si>
-    <t>vsmscqa</t>
   </si>
   <si>
     <t>Test@123</t>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +405,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,30 +416,21 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B6D31860-01D0-4B06-A67A-0DD75E345C38}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{964BECEA-502F-48F6-9E53-83D9CB2834CA}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5878E401-8466-4C47-9B16-E85823C77ABC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{964BECEA-502F-48F6-9E53-83D9CB2834CA}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5878E401-8466-4C47-9B16-E85823C77ABC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
